--- a/UrbanLadder/src/test/resources/testdata/testdata.xlsx
+++ b/UrbanLadder/src/test/resources/testdata/testdata.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2421212_cognizant_com/Documents/Desktop/UrbanLadder/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2421218\git\repository\UrbanLadder\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{03B3F340-826F-4E5D-B222-94346548C4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB94F68-DBCA-49E4-A472-7CCE2C80CDEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B10837D-9209-40A8-A53A-B7768A2137FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{25D8E519-C8C0-4159-AA7E-856C4654EA56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25D8E519-C8C0-4159-AA7E-856C4654EA56}"/>
   </bookViews>
   <sheets>
     <sheet name="valid" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>pincode</t>
   </si>
@@ -155,12 +155,6 @@
     <t>₹3,926</t>
   </si>
   <si>
-    <t>Hubert Low Kitchen Display Cabinet</t>
-  </si>
-  <si>
-    <t>Megan Engineered Wood Bookshelf In Classic Walnut Finish</t>
-  </si>
-  <si>
     <t>LB Nagar, Hyderabad</t>
   </si>
   <si>
@@ -173,12 +167,6 @@
     <t>Kondapur, Hyderabad</t>
   </si>
   <si>
-    <t>₹8,931</t>
-  </si>
-  <si>
-    <t>₹2,939</t>
-  </si>
-  <si>
     <t>Rhodes Solid Wood Bookshelf In Teak Finish</t>
   </si>
   <si>
@@ -186,28 +174,12 @@
   </si>
   <si>
     <t>Rhodes Solid Wood Bookshelf In Mahogany Finish</t>
-  </si>
-  <si>
-    <t>Hayden Engineered Wood Bookshelf In Classic Walnut Finish</t>
-  </si>
-  <si>
-    <t>₹3,449</t>
-  </si>
-  <si>
-    <t>Hubert 6 Door Kitchen Display Cabinet</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fujiwara Bookshelf/Display Cabinet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,82 +547,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C9BC12-BC9C-4415-8291-42083706C45B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="6" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>530014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>9087654321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D382C616-EE07-4781-8D6C-94F58ACF6F09}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.36328125"/>
-    <col min="2" max="2" customWidth="true" width="16.1796875"/>
-    <col min="3" max="3" customWidth="true" width="15.0"/>
-    <col min="4" max="4" customWidth="true" width="20.36328125"/>
-    <col min="5" max="6" customWidth="true" width="13.54296875"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="0">
-        <v>530014</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0">
-        <v>9087654321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D382C616-EE07-4781-8D6C-94F58ACF6F09}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="15.81640625"/>
-    <col min="2" max="2" customWidth="true" width="15.1796875"/>
-    <col min="3" max="3" customWidth="true" width="15.08984375"/>
-    <col min="4" max="4" customWidth="true" width="12.1796875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="0">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>123098</v>
       </c>
     </row>
@@ -669,65 +637,65 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -742,25 +710,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -775,37 +743,37 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -822,38 +790,38 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>44</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -865,33 +833,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
